--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="January" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="February" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="March" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="April" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="May" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="June" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="July" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="August" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="September" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="October" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="November" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="December" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="January" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="February" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="March" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="April" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="June" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="July" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="September" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="October" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="November" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="December" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Spindel</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>Annet:</t>
+  </si>
+  <si>
+    <t>14.08.2017, Mon</t>
+  </si>
+  <si>
+    <t>15.08.2017, Tue</t>
+  </si>
+  <si>
+    <t>16.08.2017, Wed</t>
+  </si>
+  <si>
+    <t>17.08.2017, Thu</t>
+  </si>
+  <si>
+    <t>18.08.2017, Fri</t>
+  </si>
+  <si>
+    <t>19.08.2017, Sat</t>
   </si>
   <si>
     <t>20.08.2017, Sun</t>
@@ -62,6 +80,15 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>21.08.2017, Mon</t>
+  </si>
+  <si>
+    <t>22.08.2017, Tue</t>
+  </si>
+  <si>
+    <t>25.08.2017, Fri</t>
   </si>
 </sst>
 </file>
@@ -98,11 +125,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -403,7 +431,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -454,7 +482,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -505,7 +533,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -556,7 +584,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -607,7 +635,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -658,7 +686,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -709,7 +737,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -760,7 +788,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -811,7 +839,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -862,7 +890,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -907,13 +935,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="14.42578125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="7.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="15.7109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="20.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="15.28515625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.42578125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -947,9 +987,104 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="n">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="n">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="n">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="n">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="n">
+        <v>42952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="n">
+        <v>42953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="n">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="n">
+        <v>42955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="n">
+        <v>42956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="n">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="n">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="n">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="n">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -979,7 +1114,109 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1236,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -57,10 +57,10 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>20.09.2017, Wed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">æøå
+    <t>21.10.2017, Sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
 </sst>
@@ -403,7 +403,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -448,52 +448,138 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -505,46 +591,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -556,46 +642,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -607,46 +693,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -658,46 +744,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -709,46 +795,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -760,46 +846,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -811,46 +897,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,46 +948,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -913,124 +999,38 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Iver\Dokumenter\GitHub\TPV_Skjema\TPV_Source\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26250" windowHeight="8535" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="January" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="February" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="March" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="April" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="June" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="July" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="September" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="October" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="November" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="December" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="January" sheetId="1" r:id="rId1"/>
+    <sheet name="February" sheetId="2" r:id="rId2"/>
+    <sheet name="March" sheetId="3" r:id="rId3"/>
+    <sheet name="April" sheetId="4" r:id="rId4"/>
+    <sheet name="May" sheetId="5" r:id="rId5"/>
+    <sheet name="June" sheetId="6" r:id="rId6"/>
+    <sheet name="July" sheetId="7" r:id="rId7"/>
+    <sheet name="August" sheetId="8" r:id="rId8"/>
+    <sheet name="September" sheetId="9" r:id="rId9"/>
+    <sheet name="October" sheetId="10" r:id="rId10"/>
+    <sheet name="November" sheetId="11" r:id="rId11"/>
+    <sheet name="December" sheetId="12" r:id="rId12"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
   <si>
     <t>Spindel</t>
   </si>
@@ -63,24 +68,37 @@
     <t xml:space="preserve">æøå
 </t>
   </si>
+  <si>
+    <t>12.10.2017, Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,15 +114,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,20 +420,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -437,26 +519,55 @@
         <v>9</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -489,25 +600,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -540,25 +645,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -591,25 +690,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -642,25 +735,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -693,25 +780,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -744,25 +825,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -795,25 +870,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -846,25 +915,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -897,25 +960,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -947,86 +1004,35 @@
         <v>9</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
@@ -1034,6 +1040,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12225" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="January" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="December" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -57,7 +57,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>21.10.2017, Sat</t>
+    <t>07.04.2018, Sat</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -102,7 +102,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -403,7 +403,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -448,78 +448,345 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="B1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="13.85546875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="7.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="15.7109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="20.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="15.28515625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -528,7 +795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -540,46 +807,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -591,46 +858,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,46 +909,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,46 +960,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -744,262 +1011,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Spindel</t>
   </si>
@@ -62,6 +62,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>16.04.2018, Mon</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +793,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12225" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="January" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,12 +21,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="December" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Spindel</t>
   </si>
@@ -57,14 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>07.04.2018, Sat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>16.04.2018, Mon</t>
+    <t>17.04.2018, Tue</t>
   </si>
 </sst>
 </file>
@@ -105,7 +99,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -406,7 +400,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -457,7 +451,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -508,7 +502,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -559,7 +553,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -610,7 +604,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -661,7 +655,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -706,126 +700,76 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="13.85546875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="7.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="15.7109375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="16.28515625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="20.5703125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="15.28515625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="15.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +789,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -896,7 +840,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -947,7 +891,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -998,7 +942,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -1049,7 +993,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Spindel</t>
   </si>
@@ -59,6 +59,13 @@
   </si>
   <si>
     <t>17.04.2018, Tue</t>
+  </si>
+  <si>
+    <t>19.04.2018, Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -700,7 +707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +779,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Spindel</t>
   </si>
@@ -58,11 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>09.05.2018, Wed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>10.05.2018, Thu</t>
   </si>
 </sst>
 </file>
@@ -755,79 +751,76 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Spindel</t>
   </si>
@@ -58,7 +58,11 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>10.05.2018, Thu</t>
+    <t>13.05.2018, Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -751,76 +755,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -58,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>13.05.2018, Sun</t>
+    <t>14.05.2018, Mon</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -755,78 +755,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Spindel</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>15.05.2018, Tue</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +833,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Spindel</t>
   </si>
@@ -58,14 +58,11 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>14.05.2018, Mon</t>
+    <t>21.05.2018, Mon</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>15.05.2018, Tue</t>
   </si>
 </sst>
 </file>
@@ -758,116 +755,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -58,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>21.05.2018, Mon</t>
+    <t>28.05.2018, Mon</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -755,78 +755,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -58,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>28.05.2018, Mon</t>
+    <t>01.06.2018, Fri</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -755,78 +755,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -835,7 +886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -886,7 +937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -937,7 +988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -986,55 +1037,4 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Spindel</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>30.05.2018, Wed</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +833,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -58,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>01.06.2018, Fri</t>
+    <t>02.06.2018, Sat</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -806,78 +806,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Spindel</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>04.06.2018, Mon</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,6 +884,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -58,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>10.06.2018, Sun</t>
+    <t>11.06.2018, Mon</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -806,78 +806,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Spindel</t>
   </si>
@@ -58,14 +58,11 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>28.05.2018, Mon</t>
+    <t>20.08.2018, Mon</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>30.05.2018, Wed</t>
   </si>
 </sst>
 </file>
@@ -758,122 +755,240 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -922,157 +1037,4 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -58,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>20.08.2018, Mon</t>
+    <t>26.08.2018, Sun</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -908,78 +908,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Spindel</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>27.08.2018, Mon</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +986,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Spindel</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>27.08.2018, Mon</t>
+  </si>
+  <si>
+    <t>28.08.2018, Tue</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,6 +1021,41 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Spindel</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>28.08.2018, Tue</t>
+  </si>
+  <si>
+    <t>30.08.2018, Thu</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,6 +1059,41 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Spindel</t>
   </si>
@@ -58,20 +58,11 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>26.08.2018, Sun</t>
+    <t>31.08.2018, Fri</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>27.08.2018, Mon</t>
-  </si>
-  <si>
-    <t>28.08.2018, Tue</t>
-  </si>
-  <si>
-    <t>30.08.2018, Thu</t>
   </si>
 </sst>
 </file>
@@ -917,186 +908,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -58,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>31.08.2018, Fri</t>
+    <t>03.09.2018, Mon</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -908,133 +908,133 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Spindel</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>10.09.2018, Mon</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +1037,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12465" windowWidth="20775" xWindow="270" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="January" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,12 +20,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="December" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Spindel</t>
   </si>
@@ -58,14 +57,11 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>03.09.2018, Mon</t>
+    <t>12.09.2018, Wed</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>10.09.2018, Mon</t>
   </si>
 </sst>
 </file>
@@ -106,7 +102,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -962,116 +958,89 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Spindel</t>
   </si>
@@ -62,6 +62,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>14.09.2018, Fri</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -1041,6 +1044,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Spindel</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>14.09.2018, Fri</t>
+  </si>
+  <si>
+    <t>17.09.2018, Mon</t>
   </si>
 </sst>
 </file>
@@ -961,10 +964,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1044,6 +1047,7 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:11"/>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>12</v>
@@ -1057,12 +1061,6 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
@@ -1076,6 +1074,41 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Spindel</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>17.09.2018, Mon</t>
+  </si>
+  <si>
+    <t>19.09.2018, Wed</t>
   </si>
 </sst>
 </file>
@@ -964,7 +967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -1112,6 +1115,41 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Spindel</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>19.09.2018, Wed</t>
+  </si>
+  <si>
+    <t>21.09.2018, Fri</t>
   </si>
 </sst>
 </file>
@@ -967,7 +970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -1050,7 +1053,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11"/>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>12</v>
@@ -1147,6 +1149,41 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12465" windowWidth="20775" xWindow="270" yWindow="600"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12225" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="January" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Spindel</t>
   </si>
@@ -57,23 +57,11 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>12.09.2018, Wed</t>
+    <t>24.09.2018, Mon</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>14.09.2018, Fri</t>
-  </si>
-  <si>
-    <t>17.09.2018, Mon</t>
-  </si>
-  <si>
-    <t>19.09.2018, Wed</t>
-  </si>
-  <si>
-    <t>21.09.2018, Fri</t>
   </si>
 </sst>
 </file>
@@ -415,7 +403,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -466,7 +454,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -517,7 +505,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -568,7 +556,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -619,7 +607,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -670,7 +658,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -721,7 +709,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -772,7 +760,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -823,7 +811,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -874,7 +862,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -919,274 +907,151 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:K1"/>
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="15.7109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="20.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="15.28515625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11"/>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12225" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="January" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="December" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -57,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>24.09.2018, Mon</t>
+    <t>25.09.2018, Tue</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -102,7 +103,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -403,7 +404,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -454,7 +455,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -505,7 +506,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -556,7 +557,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -607,7 +608,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -658,7 +659,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -709,7 +710,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -760,7 +761,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -811,7 +812,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -862,7 +863,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -909,21 +910,11 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="15.7109375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="16.28515625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="20.5703125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="15.28515625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="15.42578125"/>
-  </cols>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -976,79 +967,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11"/>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -58,7 +58,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>25.09.2018, Tue</t>
+    <t>29.09.2018, Sat</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -948,14 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="20" spans="1:11"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -967,86 +960,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11"/>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -948,7 +948,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11"/>
+    <row r="20" spans="1:11">
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1000,7 +1007,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11"/>
+    <row r="28" spans="1:11">
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>10</v>
@@ -1015,16 +1029,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>

--- a/TPV_Source/test.xlsx
+++ b/TPV_Source/test.xlsx
@@ -948,7 +948,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11"/>
+    <row r="20" spans="1:11">
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1000,19 +1007,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11"/>
+    <row r="28" spans="1:11">
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
